--- a/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForHypothyroidism.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForHypothyroidism.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DD013A41-72D8-4FD2-8902-3B01703100E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7072FA4A-2598-4A69-8246-67A4E1AD6A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="271">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -479,12 +483,1206 @@
   <si>
     <t>https://www.tarladalal.com/mushroom-and-green-capsicum-subzi-39688r</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 22235</t>
+  </si>
+  <si>
+    <t>Cream Of Mushroom Soup</t>
+  </si>
+  <si>
+    <t>Low Calorie Soups</t>
+  </si>
+  <si>
+    <t>For Cream Of Mushroom Soup
+2 tbsp butter
+2 tbsp chopped garlic (lehsun)
+1 cup sliced onions
+2 cups sliced mushrooms (khumbh)
+1/2 tsp dried mixed herbs
+1 cup vegetable stock
+2 tbsp fresh cream
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For cream of mushroom soup
+To make cream of mushroom soup, heat butter in a broad pan, add garlic and onions and saute on medium flame for 2 minutes.
+Add mushrooms and saute on medium flame for 4 minutes, while stirring occasionally.
+Add mixed herbs, salt, pepper and vegetable stock and simmer for 4 to 5 minutes.
+Remove in a big plate and allow it to cool.
+Transfer the mixture into a mixer jar and blend to a smooth paste.
+Now transfer the paste into deep pan, add 1 cup water, fresh cream.
+Mix well and cook on medium flame for 3 minutes.
+Serve the cream of mushroom soup hot with toasted bread.</t>
+  </si>
+  <si>
+    <t>Energy 73 cal
+Protein 1.2 g
+Carbohydrates 4.3 g
+Fiber 0.9 g
+Fat 5.9 g
+Cholesterol 12 mg
+Sodium 48.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cream-of-mushroom-soup-22235r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39896</t>
+  </si>
+  <si>
+    <t>Oats and Mixed Nuts Ladoo ( Healthy Laddu)</t>
+  </si>
+  <si>
+    <t>Diabetic recipes</t>
+  </si>
+  <si>
+    <t>For Oats and Mixed Nuts Ladoo
+1 cup quick cooking rolled oats
+1 tbsp finely chopped walnuts (akhrot)
+1 tbsp finely chopped almonds (badam)
+2 tbsp sesame seeds (til)
+2 tsp ghee
+2 tbsp chopped jaggery (gur)
+1/2 tsp cardamom (elaichi) powder
+2 tbsp low fat milk , 99.7% fat-free</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+For oats and mixed nuts ladoo
+To make oats and mixed nuts ladoo, heat a broad non-stick pan, add the oats and dry roast on a medium flame for 3 minutes. Remove and keep aside to cool completely.
+Heat the same broad non-stick pan, add the sesame seeds and dry roast them on a medium flame for 2 minutes. Keep aside to cool completely.
+Heat the ghee and jaggery in the same broad non-stick pan, mix well and cook on a slow flame for 1 minute, while stirring continuously.
+Transfer the jaggery mixture into a flat thali and allow it to cool slightly.
+Add the roasted oats, roasted sesame seeds, walnuts, almonds and cardamom powder and mix very well.
+Add the milk and mix very well.
+Divide the mixture into 8 equal portions and roll out each portion into a round ball.
+Serve the oats and mixed nuts ladoo immediately.</t>
+  </si>
+  <si>
+    <t>Energy 105 cal
+Protein 2.9 g
+Carbohydrates 11.8 g
+Fiber 1.7 g
+Fat 5.3 g
+Cholesterol 0 mg
+Sodium 2.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-and-mixed-nuts-ladoo--healthy-laddu-39896r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5295</t>
+  </si>
+  <si>
+    <t>Green Peas and Mint Pulao</t>
+  </si>
+  <si>
+    <t>Quick Vegetarian Rice, khichdi Recipes</t>
+  </si>
+  <si>
+    <t>1 1/2 cups boiled green peas
+1/4 cup finely chopped mint leaves (phudina) leaves
+3 cups cooked brown rice
+2 tsp oil
+1 1/2 tsp finely chopped garlic (lehsun)
+1/2 cup finely chopped onions
+2 tsp finely chopped green chillies
+1/2 cup chopped coriander (dhania)
+salt to taste
+For Serving
+low-fat curds</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a broad non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the green chillies, green peas, coriander, mint leaves and 2 tbsp of water, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the salt and brown rice, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve immediately with low-fat curds.
+Handy tip:
+To make 3 cups of cooked brown rice, boil enough water in a deep pan, add the salt, 1 tsp of oil and 1 cup of soaked and drained brown rice and cook till the rice is 85% cooked. Drain completely and use as required.</t>
+  </si>
+  <si>
+    <t>No nutritional value is found</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/green-peas-and-mint-pulao-5295r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42032</t>
+  </si>
+  <si>
+    <t>Rajma Brown Rice, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>Healthy Heart Rice, Khichdi and Biryani</t>
+  </si>
+  <si>
+    <t>For Rajma Brown Rice
+1/2 cup rajma (kidney beans)
+3 cups soaked and cooked brown rice
+1 1/2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/2 cup sliced onions
+1/2 tsp ginger-garlic (adrak-lehsun) paste
+1/2 cup chopped tomatoes
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>28 mins</t>
+  </si>
+  <si>
+    <t>Method
+For rajma brown rice
+To make rajma brown rice, soak the rajma in enough water in a deep bowl for 8 hours. Drain well and keep aside.
+Heat the oil in a pressure cooker and add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the onions and ginger-garlic paste and sauté on a medium flame for 2 to 3 minutes.
+Add the tomatoes, turmeric powder, chilli powder, coriander-cumin seeds powder and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the rajma and 1 cup of water, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Add the cooked brown rice, mix gently and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the rajma brown rice hot.</t>
+  </si>
+  <si>
+    <t>Energy 165 cal
+Protein 5.2 g
+Carbohydrates 30.7 g
+Fiber 1.8 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 67.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-brown-rice-low-salt-recipe-42032r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 763</t>
+  </si>
+  <si>
+    <t>Anti- Aging Breakfast Platter</t>
+  </si>
+  <si>
+    <t>Antioxidant Rich Indian</t>
+  </si>
+  <si>
+    <t>For Anti- Aging Breakfast Platter
+2 tbsp sprouted moong (whole green gram)
+1/4 cup low fat paneer (cottage cheese) cubes
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp rock salt (sendha namak)
+6 oranges segments
+1/2 cup watermelon (tarbuj) balls
+1/4 cup green grapes
+2 dates (khajur)
+4 walnuts (akhrot)
+5 almonds (badam)</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Method
+For anti- aging breakfast platter
+To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
+Arrange all the ingredients on a platter and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 324 cal
+Protein 15 g
+Carbohydrates 46.1 g
+Fiber 5.8 g
+Fat 9 g
+Cholesterol 0.1 mg
+Sodium 153.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22529</t>
+  </si>
+  <si>
+    <t>How To Cook Brown Rice</t>
+  </si>
+  <si>
+    <t>Method
+How to cook brown rice
+To cook brown rice, soak the brown rice in enough water in a bowl for 2 hours. Drain well.
+Boil enough water in a deep non-stick pan, add the salt and soaked and drained brown rice, mix well and cook on a medium flame for approx. 25 minutes, while stirring occasionally.
+Drain the brown rice well, transfer to a plate and separate each grain using a fork lightly.
+Use the coooked brown rice as required.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-cook-brown-rice-22529r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35073</t>
+  </si>
+  <si>
+    <t>Tomato Methi Rice, Healthy Tomato Methi Pulao</t>
+  </si>
+  <si>
+    <t>Pregnancy Third Trimester Foods</t>
+  </si>
+  <si>
+    <t>For Tomato Methi Rice
+1/2 cup chopped tomatoes
+3 cups chopped fenugreek (methi) leaves
+2 tsp oil
+1 bayleaf (tejpatta)
+2 cloves (laung / lavang)
+25 cinnamon (dalchini)
+2 cardamoms (elaichi)
+2 tsp finely chopped green chillies
+1/4 cup onion paste
+2 tsp garlic (lehsun) paste
+1 tbsp coriander-cumin seeds (dhania-jeera) powder
+1/2 tsp turmeric powder (haldi)
+2 tsp chilli powder
+3 cups cooked brown rice , refer handy tip
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For tomato methi rice
+To make tomato methi rice, heat the oil in a deep non-stick pan and add the bayleaf, cloves, cinnamon, cardamom and sauté on a medium flame for 30 seconds.
+Add the green chillies, onion paste and sauté on a medium flame for another minute, till the onion paste turns brown in colour. Sprinkle a little water to avoid the onions from burning.
+Add the garlic paste and sauté on a medium flame for few seconds.
+Add the tomatoes and cook on a medium flame till the tomatoes are cooked while stirring continuously.
+Add the coriander-cumin seeds, turmeric powder and chilli powder and 2 tbsp water, mix well and cook for few seconds.
+Add the fenugreek leaves, mix well and cook on a slow flame for 3 to 4 more minutes or till the fenugreek leaves are cooked.
+Add the rice and salt, mix gently and cook on a slow flame for another 3 to 4 minutes.
+Serve the tomato methi rice hot with curds or raita of your choice.
+Handy tip:
+To make 3 cups of cooked brown rice, boil enough water in a deep pan, add the salt, 1 tsp of oil and 1 cup of soaked and drained brown rice and cook till the rice is 85% cooked. Drain completely and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 207 cal
+Protein 4.8 g
+Carbohydrates 37.7 g
+Fiber 4.1 g
+Fat 4 g
+Cholesterol 0 mg
+Sodium 21.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tomato-methi-rice-healthy-tomato-methi-pulao-35073r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42401</t>
+  </si>
+  <si>
+    <t>Pumpkin Steel Cut Oats</t>
+  </si>
+  <si>
+    <t>Marathoners, Endurance Athletes, Triathlete</t>
+  </si>
+  <si>
+    <t>For Pumpkin Steel Cut Oats
+1 cup red pumpkin (bhopla / kaddu) cubes
+1/2 cup soaked and cooked steel cut oats
+1/2 cup chopped apple , unpeeled
+a pinch of nutmeg (jaiphal)
+1/4 tsp vanilla essence
+1 tsp maple syrup
+For The Topping
+1/4 cup chopped apple , unpeeled
+1 tbsp roasted pumpkin seeds</t>
+  </si>
+  <si>
+    <t>16 mins</t>
+  </si>
+  <si>
+    <t>Method
+For pumpkin steel cut oats
+To make pumpkin steel cut oats, soak the steel cut oats in a deep bowl in enough water for 8 hours. Drain well.
+Boil 1 cup of water in a deep non-stick pan, add the soaked and drained oats and mix well. Cover it with a lid and cook on a medium slow flame for 6 minutes, while stirring occasionally. Keep aside.
+Combine the red pumpkin and 1 cup of water in a deep non-stick pan, cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Cool completely and blend in a mixer till smooth.
+Transfer the mixture into a deep bowl, add all the other ingredients along with ¼ cup of warm water and mix well.
+Finally top it with the apples and pumpkin seeds.
+Serve or store the pumpkin steel cut oats in an air-tight container in the fridge and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 98 cal
+Protein 3.3 g
+Carbohydrates 18.7 g
+Fiber 2.8 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 16.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pumpkin-steel-cut-oats-42401r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5586</t>
+  </si>
+  <si>
+    <t>Chick Pea and Mint Rice, Healthy Chana Pulao</t>
+  </si>
+  <si>
+    <t>Non-stick Pan</t>
+  </si>
+  <si>
+    <t>For Chick Pea and Mint Rice
+1/2 cup boiled kabuli chana (white chick peas)
+1/4 cup finely chopped mint leaves (phudina) leaves
+2 cups soaked and cooked brown rice
+1 tsp oil
+1 tsp finely chopped garlic (lehsun)
+1/2 cup thinly sliced onions
+1 bayleaf (tejpatta)
+1/2 cup chopped and boiled mixed vegetables (french beans , carrots and green peas)
+salt to taste
+1 tsp green chilli paste
+1/2 tsp lemon juice
+For Serving With Chick Pea and Mint Rice
+low fat curds</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a broad non-stick pan, add the garlic, onions and bayleaf and sauté on a medium flame till the onions turn brown.
+Add the brown rice, kabuli chana, mixed vegetables and salt, mix well and cook on a medium flame for 1 to 2 minutes.
+Add the green chilli paste, mint leaves and lemon juice, mix well and cook on a medium flame for another minute.
+Serve hot with low-fat curds.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chick-pea-and-mint-rice-healthy-chana-pulao-5586r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40444</t>
+  </si>
+  <si>
+    <t>Grapefruit and Green Apple Salad</t>
+  </si>
+  <si>
+    <t>2 1/2 cups grapefruit segments
+1 1/2 cups green apple/ red apple cubes
+2 tbsp chopped walnuts (akhrot)
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/grapefruit-and-green-apple-salad-40444r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5297</t>
+  </si>
+  <si>
+    <t>Kabuli Chana Biryani</t>
+  </si>
+  <si>
+    <t>For Kabuli Chana Biryani
+2 1/4 cups cooked brown rice
+1/4 cup chopped coriander (dhania)
+1/4 tsp saffron (kesar) strands
+1/4 cup warm low fat milk
+salt to taste
+For The Kabuli Chana Gravy
+3/4 cup soaked and boiled kabuli chana (white chick peas)
+2 tsp oil
+1 tsp ginger (adrak) paste
+1 tsp garlic (lehsun) paste
+1 tsp chilli powder
+1/2 tsp turmeric powder (haldi)
+3/4 cup chopped tomatoes
+1 1/2 tsp finely chopped green chillies
+salt to taste
+1/4 cup whisked low fat curds</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the kabuli chana gravy
+Heat the oil in a broad non-stick pan, add the ginger and garlic paste and sauté on a medium flame for a few seconds.
+Add the chilli powder, turmeric powder and 1 tbsp of water and sauté on a medium flame for 30 seconds.
+Add the tomatoes and green chillies, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the cooked kabuli chana and salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Switch off the flame, add the curds and mix gently. Keep aside.
+How to proceed to make kabuli chana biryani
+Combine the saffron strands and warm milk in a bowl and mix well.
+Combine the brown rice, coriander, little salt and saffron-milk mixture in a deep bowl and mix well.
+Put half the rice mixture in a baking dish and spread it evenly.
+Put the kabuli chana gravy evenly over it and spread it evenly.
+Finally put the remaining rice mixture and spread it evenly.
+Cover with an aluminium foil and bake in a pre-heated oven at 200°c (400°f) for 20 minutes.
+Serve the kabuli chana biryani hot.</t>
+  </si>
+  <si>
+    <t>Energy 143 cal
+Protein 4.3 g
+Carbohydrates 24.7 g
+Fiber 4.2 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 14.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/kabuli-chana-biryani-5297r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5596</t>
+  </si>
+  <si>
+    <t>Date and Walnut Balls</t>
+  </si>
+  <si>
+    <t>High Fiber</t>
+  </si>
+  <si>
+    <t>For Date and Walnut Balls
+1/2 cup finely chopped black seedless dates
+2 tbsp finely chopped walnuts (akhrot)
+1/4 tsp cardamom (elaichi) powder</t>
+  </si>
+  <si>
+    <t>Method
+For date and walnut balls
+To make date and walnut balls, combine all the ingredients in a deep bowl and mix well till the mixture binds well like a dough.
+Divide the mixture into 8 portions and shape each portion into a round ball.
+Serve the date and walnut balls immediately or store refrigerated in an air-tight container and serve it within 30 days.</t>
+  </si>
+  <si>
+    <t>Energy 42 cal
+Protein 0.7 g
+Carbohydrates 4.2 g
+Fiber 1 g
+Fat 2.5 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/date-and-walnut-balls-5596r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5293</t>
+  </si>
+  <si>
+    <t>Whole Masoor Dal, Sabut Masoor Dal, How To Make Whole Masoor Dal</t>
+  </si>
+  <si>
+    <t>Indian Pulses</t>
+  </si>
+  <si>
+    <t>1 cup whole masoor (whole red lentil) , washed and drained
+10 to 12 shallots (madras onions)
+2 tsp oil
+1 cup sliced onions
+3/4 cup chopped tomatoes
+salt to taste
+To Be Ground Into A Smooth Paste(using Little Water)
+8 garlic (lehsun) cloves
+1 tsp cumin seeds (jeera)
+2 tsp coriander (dhania) seeds
+1 tbsp roughly chopped ginger (adrak)
+8 whole dry kashmiri red chillies
+For The Garnish
+2 tbsp finely chopped coriander (dhania)
+For Serving
+brown rice</t>
+  </si>
+  <si>
+    <t>Method
+Combine the masoor, shallots and 2½ cups of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Heat the oil in a deep non-stick kadhai, add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the prepared paste, 2 tbsp of water and sauté on a medium flame for 1 to 2 minutes.
+Add the tomatoes, cooked masoor mixture, salt and i cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Garnish with coriander and serve hot with brown rice.</t>
+  </si>
+  <si>
+    <t>Energy 127 cal
+Protein 7.3 g
+Carbohydrates 20 g
+Fiber 3.3 g
+Fat 1.9 g
+Cholesterol 0 mg
+Sodium 5.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/whole-masoor-dal-sabut-masoor-dal-how-to-make-whole-masoor-dal-5293r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38440</t>
+  </si>
+  <si>
+    <t>Sprouts and Methi Rice</t>
+  </si>
+  <si>
+    <t>Iron Rich Khichdi, Pulao, Biryani</t>
+  </si>
+  <si>
+    <t>1 cup mixed sprouts
+1 1/2 cups finely chopped fenugreek (methi) leaves
+3/4 cup brown rice
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1 green chilli ,
+1/2 tsp finely chopped ginger (adrak)
+1 tbsp finely chopped garlic (lehsun)
+1/2 cup finely chopped onions
+1/2 cup finely chopped tomatoes
+1/4 tsp turmeric powder (haldi)
+1 tsp chilli powder
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Clean, wash and soak the brown rice in enough water in a deep bowl for 30 minutes. Drain well and keep aside.
+Heat the oil in a pressure cooker and add the cumin seeds.
+When the seeds crackle, add the green chilli, ginger, garlic and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the tomatoes, fenugreek leaves, turmeric powder, chilli powder and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the soaked and drained brown rice, mixed sprouts, 1¾ cups of water and salt, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 217 cal
+Protein 7.5 g
+Carbohydrates 38.2 g
+Fiber 3.3 g
+Fat 3.7 g
+Cholesterol 0 mg
+Sodium 17.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouts-and-methi-rice-38440r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42104</t>
+  </si>
+  <si>
+    <t>Brown Rice Khichdi, Healthy Lentil Brown Rice Khichadi</t>
+  </si>
+  <si>
+    <t>Hyperthyroidism Diet</t>
+  </si>
+  <si>
+    <t>For Brown Rice Khichdi
+1/2 cup unpolished brown rice
+1 cup green moong dal (split green gram)
+2 tsp ghee
+1 tsp cumin seeds (jeera)
+1/2 tsp asafoetida (hing)
+1/2 tsp turmeric powder (haldi)
+2 cloves (laung / lavang)
+3 black peppercorns (kalimirch)
+salt to taste</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>Method
+For brown rice khichdi
+To make brown rice khichdi, combine the brown rice and green moong dal in a deep bowl with enough water and soak it for 30 minutes. Drain and keep aside.
+Heat the ghee in a pressure cooker, add the cumin seeds, asafoetida, turmeric powder, cloves and peppercorns and sauté on a medium flame for a few seconds.
+Add the rice-moong dal, salt and 3 cups of water, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Add more ¾ cup of water, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the brown rice khichdi hot.</t>
+  </si>
+  <si>
+    <t>Energy 290 cal
+Protein 14.9 g
+Carbohydrates 49.1 g
+Fiber 5.2 g
+Fat 3.7 g
+Cholesterol 0 mg
+Sodium 15.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/brown-rice-khichdi-healthy-lentil-brown-rice-khichadi-42104r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5303</t>
+  </si>
+  <si>
+    <t>Healthy Sheera</t>
+  </si>
+  <si>
+    <t>Janmashtami</t>
+  </si>
+  <si>
+    <t>For Healthy Sheera
+2 tbsp whole wheat flour (gehun ka atta)
+2 tbsp ragi (nachni / red millet) flour
+2 tbsp soy flour
+8 tsp grated jaggery (gur)
+1/2 tsp cardamom (elaichi) powder
+2 tsp coconut oil or ghee
+For The Garnish
+4 almonds (badam) , slivered
+2 tbsp chopped walnuts (akhrot)</t>
+  </si>
+  <si>
+    <t>Method
+For healthy sheera
+To make healthy sheera, boil 1½ cups of water in a pan and add grated jaggery to it. Allow to simmer till the jaggery melts. Keep aside.
+Heat the oil in a non-stick pan, add whole wheat flour, ragi (nachni, red millet ) flour , soya flour and sauté until light brown in colour.
+Add the jaggery water and cardamom and mix well till no lumps remain.
+Cook on a slow flame for 3 minutes, while stirring continuously.
+Remove from the flame. Garnish with almonds, walnuts and pista.
+Serve the healthy sheera hot.</t>
+  </si>
+  <si>
+    <t>Energy 117 cal
+Protein 2.6 g
+Carbohydrates 18.9 g
+Fiber 1.4 g
+Fat 3.7 g
+Cholesterol 0 mg
+Sodium 1.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-sheera-5303r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34736</t>
+  </si>
+  <si>
+    <t>Zucchini Toast ( Healthy Starter Recipe )</t>
+  </si>
+  <si>
+    <t>Low Calorie Indian Snacks &amp; Starters</t>
+  </si>
+  <si>
+    <t>For The Zucchini Spread (makes Approx. 3/4 Cup)
+3/4 cup thickly grated zucchini (unpeeled)
+2 tbsp chopped parsley
+1/2 tbsp lemon juice
+1/4 tbsp olive oil
+1/4 tsp crushed garlic (lehsun)
+1/2 tsp green chilli paste
+salt and to taste
+1/2 tbsp chopped and roasted walnuts (akhrot)
+For Serving
+1 small whole wheat french bread loaf (cut into 8 slices)</t>
+  </si>
+  <si>
+    <t>Method
+For the zucchini spread
+Squeeze the zucchini with hands to remove the excess water.
+Combine all the ingredients, except the walnuts, and blend in a mixer to a smooth paste.
+Transfer the paste to a bowl, add the walnuts and mix well.
+Cover and refrigerate for at least an hour.
+Divide the spread into 8 equal portions and keep aside.
+How to proceed
+Just before serving, toast the bread slices in a sandwich griller till they are brown and crispy from both the sides.
+Apply a portion of the spread evenly over each bread slice.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 11 cal
+Protein 0.3 g
+Carbohydrates 0.8 g
+Fiber 0.2 g
+Fat 0.9 g
+Cholesterol 0 mg
+Sodium 1.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/zucchini-toast--healthy-starter-recipe--34736r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37041</t>
+  </si>
+  <si>
+    <t>Sprouts Pulao ( Low Cal)</t>
+  </si>
+  <si>
+    <t>Pregnancy Rice, Khichdi &amp; Pulao</t>
+  </si>
+  <si>
+    <t>For Sprouts Pulao
+1/2 cup boiled sprouted matki (moath beans)
+1/2 cup boiled sprouted moong (whole green gram)
+2 cups cooked brown rice
+1 tsp oil
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+1 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped ginger (adrak)
+a pinch turmeric powder (haldi)
+1/2 tsp chilli powder
+1/4 cup finely chopped tomatoes
+3 tbsp finely chopped capsicum
+1 tsp pav bhaji masala
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a non-stick broad pan and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 to 2 minutes, or till the onions turn translucent.
+Add the garlic, ginger, turmeric powder, chilli powder, tomatoes and a little water and cook on a medium flame for another 2 to 3 minutes, while stirring occasionally.
+Add the capsicum, a little more water and cook on a medium flame for another 1 to 2 minutes, while stirring occasionally.
+Add the pav bhaji masala, salt, matki sprouts and moong sprouts, mix well and cook for 2 to 3 minutes, while stirring continuously.
+Add the brown rice, mix well and cook on a medium flame for 2 to 3 minutes, while stirring continuously.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 187 cal
+Protein 6.7 g
+Carbohydrates 34.6 g
+Fiber 3.3 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 8.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouts-pulao--low-cal-37041r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1343</t>
+  </si>
+  <si>
+    <t>Mushroom Soup, Quick Mushroom Soup</t>
+  </si>
+  <si>
+    <t>Vitamin B3, Niacin Rich</t>
+  </si>
+  <si>
+    <t>For Quick Mushroom Soup
+2 cups chopped mushrooms (khumbh)
+2 tsp low fat butter
+1/4 cup chopped onions
+3 cups vegetable stock
+salt to taste
+freshly ground black pepper (kalimirch) to taste
+1/4 cup low fat milk , 99.7% fat-free</t>
+  </si>
+  <si>
+    <t>Method
+For quick mushroom soup
+To make quick mushroom soup, heat the butter in a deep non-stick pan, add the onions and mushrooms and sauté on a medium flame for 1 minute.
+Add 3 cups of vegetable stock or hot water, mix well and cook on a medium flame for 5 to 6 minutes or till the mushrooms get cooked.
+Allow it to cool slightly, use a hand blender and blend to a smooth purée. Add salt, pepper and milk, mix well and bring to a boil. Transfer into the deep non-stick pan, add the salt, pepper and milk, mix well and bring to a boil.
+Serve quick mushroom soup hot with crusty bread.</t>
+  </si>
+  <si>
+    <t>Energy 63 cal
+Protein 2.6 g
+Carbohydrates 9.5 g
+Fiber 2.4 g
+Fat 2 g
+Cholesterol 5 mg
+Sodium 51 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mushroom-soup-quick-mushroom-soup-1343r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42390</t>
+  </si>
+  <si>
+    <t>Apple Steel Cut Oatmeal with Almond Milk</t>
+  </si>
+  <si>
+    <t>For Apple Steel Cut Oatmeal With Almond Milk
+3/4 cup green apple cubes
+1/4 cup steel cut oats
+1/8 tsp cinnamon (dalchini) powder
+1/2 cup unsweetened almond milk
+1/4 tsp vanilla extract
+1 tsp maple syrup
+1 tbsp roasted pumpkin seeds</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>Method
+For apple steel cut oatmeal with almond milk
+Soak the steel cut oats in a deep bowl in enough water for 8 hours. Drain well.
+Boil 1 cup of water in a deep non-stick pan, add the soaked and drained oats and mix well. Cover it with a lid and cook on a medium slow flame for 6 minutes, while stirring occasionally.
+Transfer the mixture into a deep bowl and cool it completely.
+Add the almond milk, vanilla extract or essence, maple syrup and ½ cup of green apples and mix well.
+Finally top it with the remaining ¼ cup of apples and roasted pumpkin seeds.
+Serve apple steel cut oatmeal with almond milk immediately or store in the fridge.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-steel-cut-oatmeal-with-almond-milk-42390r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42204</t>
+  </si>
+  <si>
+    <t>Apple Cinnamon and Oats Recipe with Almond Milk, Vegan Breakfast</t>
+  </si>
+  <si>
+    <t>Healthy Heart Breakfast</t>
+  </si>
+  <si>
+    <t>1/4 cup chopped apple (unpeeled)
+1/4 tsp cinnamon (dalchini) powder
+1/2 cup quick cooking rolled oats
+1 cup readymade almond milk
+1 1/2 tbsp finely chopped dates (khajur)
+1 tbsp chopped walnuts (akhrot)</t>
+  </si>
+  <si>
+    <t>Method
+Combine the oats, almond milk, dates and cinnamon powder in a broad non-stick pan, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the apples and walnuts and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 159 cal
+Protein 5 g
+Carbohydrates 17.9 g
+Fiber 3.7 g
+Fat 7.6 g
+Cholesterol 0 mg
+Sodium 40.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-cinnamon-and-oats-recipe-with-almond-milk-vegan-breakfast-42204r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39634</t>
+  </si>
+  <si>
+    <t>Brown Rice Risotto</t>
+  </si>
+  <si>
+    <t>High Fiber Main Dish, Dinner</t>
+  </si>
+  <si>
+    <t>For Brown Rice Risotto
+2 tsp oil
+2 cups cooked brown rice
+1/4 cup finely chopped onions
+2 tsp finely chopped garlic (lehsun)
+1/2 cup finely chopped coloured capsicum (red , yellow and green)
+2 tsp cornflour
+1 cup low-fat milk , 99.7% fat-free
+salt to taste
+1 1/2 tsp dry red chilli flakes (paprika)
+2 tsp dried oregano
+2 tsp grated mozzarella cheese
+The Garnish
+finely chopped coloured capsicum (red , yellow and green)</t>
+  </si>
+  <si>
+    <t>Method
+For brown rice risotto
+To make brown rice risotto, dissolve the cornflour in 1 tbsp of milk and keep aside.
+Heat a broad non-stick pan on a medium flame and when hot, add the onions and garlic and dry roast on a medium flame for 1 to 2 minutes or till the onions turn light brown in colour. Sprinkle a little water if the mixture starts burning.
+Add the capsicum and dry roast on a medium flame for 1 minute.
+Add the brown rice, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the remaining milk, salt, chilli flakes, oregano and cornflour-milk mixture, mix well and cook on a medium flame for 3 to 4 minutes, while stirring continuously.
+Add 1 tbsp of water and mash well using a potato masher.
+Add the cheese, mix well and cook on a medium flame for another 1 minute, while stirring continuously.
+Serve brown rice risotto immediately garnished with coloured capsicum.</t>
+  </si>
+  <si>
+    <t>Energy 166 cal
+Protein 4.7 g
+Carbohydrates 28.3 g
+Fiber 1.7 g
+Fat 3.7 g
+Cholesterol 0.5 mg
+Sodium 39.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/brown-rice-risotto-39634r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39904</t>
+  </si>
+  <si>
+    <t>Paneer and Pesto Mini Pizza</t>
+  </si>
+  <si>
+    <t>Kids Pizzas</t>
+  </si>
+  <si>
+    <t>For The Pesto
+1/4 cup roughly chopped basil leaves
+1 1/2 tbsp roughly chopped walnuts (akhrot)
+1/2 tbsp finely chopped garlic (lehsun)
+1 tsp olive oil
+3 tsp olive oil
+salt to taste
+1/2 cup finely chopped capsicum (red and yellow)
+2 tbsp low-fat milk , 99.7% fat-free
+10 tsp grated low-fat paneer (cottage cheese)
+10 whole wheat (gehun) mini pizza bases
+For The Garnish
+1 tsp dry red chilli flakes (paprika)</t>
+  </si>
+  <si>
+    <t>Method
+For the pesto
+Combine the basil leaves, walnuts, garlic, 1 tsp of olive oil, salt and ¼ cup of water in a mixer and blend till smooth. Keep aside.
+Heat the remaining 2 tsp of olive oil in a broad non-stick pan, add the capsicum and sauté on a medium flame for 1 to 2 minutes. Keep aside.
+How to proceed
+Combine the pesto paste and milk in a broad non-stick pan, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Divide the mixture into 10 equal portions and keep aside.
+Place all the whole wheat pizza base on a baking tray and spread one portion of the pesto mixture on each pizza base.
+Sprinkle 1 tsp of low-fat paneer evenly over each pizza base.
+Bake in a pre-heated oven at 200°c (400°f) for 10 minutes or till the base is brown.
+Serve immediately garnished with chilli flakes.</t>
+  </si>
+  <si>
+    <t>Energy 104 cal
+Protein 2.1 g
+Carbohydrates 12.4 g
+Fiber 0.2 g
+Fat 4.8 g
+Cholesterol 0 mg
+Sodium 14.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/paneer-and-pesto-mini-pizza-39904r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4068</t>
+  </si>
+  <si>
+    <t>Whole Wheat Vegetable Burger</t>
+  </si>
+  <si>
+    <t>Healthy Foods for Kids</t>
+  </si>
+  <si>
+    <t>6 whole wheat or multi-grain burger buns
+1 1/2 tsp low-fat butterfor brushing
+For The Cutlets
+1/2 cup broken wheat (dalia)
+3/4 cup grated carrot
+1/2 cup finely chopped onions
+3/4 cup finely chopped mushrooms (khumbh)
+1/4 cup grated low-fat paneer (cottage cheese)
+1 tbsp chilli sauce
+2 tbsp whole wheat bread crumbs
+2 tbsp whole wheat flour (gehun ka atta)
+salt and to taste
+1 1/2 tsp oil for greasing and cooking
+Other Ingredients
+12 tbsp low calorie thousand island dressing , recipe below
+6 lettuce leaves
+18 cucumber slices
+18 tomatoes slices
+6 sliced onions
+salt and for sprinkling
+For Low Calorie Thousand Island Dressing
+1 cup hung low-fat curds (dahi)
+1/2 tbsp. tomato ketchup
+1 tsp chilli sauce
+1/4 tsp mustard (rai / sarson) powder
+2 tbsp finely chopped onions
+2 tbsp finely chopped capsicum
+1 tsp finely chopped green chillies
+salt to taste
+2 tbsp low-fat milk , 99.7% fat-free</t>
+  </si>
+  <si>
+    <t>Method
+For low calorie thousand island dressing
+Combine all the ingredients in a deep bowl and mix well.
+Refrigerate for atleast 1 hour.
+For the cutlets
+Clean and wash the broken wheat thoroughly. Soak it in 1 cup of hot water for 15 minutes, drain well and keep aside.
+Combine all the ingredients, including the broken wheat in a deep bowl and mix well while mashing lightly.
+Divide the mixture into 6 equal portions and roll each portion into 75 mm. (3”) diameter cutlet.
+Heat a non-stick tava and grease it with 1 tsp of oil, cook the cutlet using the remaining ½ tsp of oil on a medium flame till they turn golden brown in colour from both the sides. Keep aside.
+How to proceed
+Cut each burger bun horizontally into two. Apply ¼ tsp of butter on the insides of each half of the burger bun and toast them lightly on a tava (griddle).
+Apply 1 tbsp of the low calorie thousand island dressing evenly on the buttered side of all the bun halves.
+Place a lower halve of the burger bun on a clean, dry surface with the buttered-dressing side facing upwards.
+Place 1 lettuce, a cutlet, 3 cucumber slices, 3 tomato slices, 1 onion slice and sprinkle a little salt and pepper evenly over it.
+Cover it with the upper halve of the bun with the buttered-dressing side facing downwards and press it lightly.
+Repeat steps 3 to 5 to make 5 more burgers.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 307 cal
+Protein 9.6 g
+Carbohydrates 53.1 g
+Fiber 2.6 g
+Fat 6.3 g
+Cholesterol 1.7 mg
+Sodium 106.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/whole-wheat-vegetable-burger-4068r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3555</t>
+  </si>
+  <si>
+    <t>Tandoori Mushrooms</t>
+  </si>
+  <si>
+    <t>For Tandoori Mushroom
+4 cups mushrooms (khumb)
+1/2 cup hung curds (chakka dahi)
+1 tbsp ginger-garlic (adrak-lehsun) paste
+1/2 tsp turmeric powder (haldi)
+1 tbsp chilli powder
+1 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp chaat masala
+1 tbsp roasted besan (bengal gram flour)
+1/2 tsp garam masala
+1/2 tbsp dried fenugreek leaves (kasuri methi)
+salt to taste
+1 tsp lemon juice
+2 tsp oil</t>
+  </si>
+  <si>
+    <t>Method
+For tandoori mushroom
+To make tandoori mushroom, in a deep bowl add hund curd, ginger garlic paste, turmeric powder, chilli powder, dhana jeera powder, chaat masala, roasted besan, garam masala, kasuri methi, salt to taste and lemon juice.
+Whisk the marinade well. Add the mushrooms and gently mix it well with the marinade. Keep aside for 30 minutes.
+Heat 2 tsp oil in a broad nonstick pan, add the marinated mushrooms.
+Cook on medium flame for 20 to 25 minutes, while stirring occasionally until all the moisture evaporates and gets evenly cooked.
+Serve the tandoori mushrooms hot with green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 97 cal
+Protein 4 g
+Carbohydrates 7.1 g
+Fiber 1.2 g
+Fat 6.2 g
+Cholesterol 8 mg
+Sodium 13.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tandoori-mushrooms-3555r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3583</t>
+  </si>
+  <si>
+    <t>Sprouts Pulao</t>
+  </si>
+  <si>
+    <t>Vitamin B1 Thiamine</t>
+  </si>
+  <si>
+    <t>For Sprouts Pulao
+1 cup mixed sprouts (moong , matki , chana , rajma etc.)
+1/2 cup brown rice , soaked for 30 minutes and drained
+1 tsp coconut oil or oil
+1 bay leaf (tejpatta)
+1 clove (laung / lavang)
+1 small stick cinnamon (dalchini)
+1/2 tsp cumin seeds (jeera)
+1 tsp ginger-green chilli paste
+1/2 cup finely chopped onions
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1 tsp coriander-cumin seeds (dhania-jeera) powder
+salt to taste
+For The Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>17 mins</t>
+  </si>
+  <si>
+    <t>Method
+For sprouts pulao
+To make sprouts pulao, heat the oil in a pressure cooker, add the bayleaf, clove, cinnamon and cumin seeds and sauté on a medium flame for 30 seconds.
+Add the ginger-green chilli paste and onions and sauté on a medium flame for 2 minutes.
+Add the brown rice and mixed sprouts and sauté on a medium flame for 2 minutes.
+Add the turmeric powder, chilli powder, coriander-cumin seeds powder, salt and 1 1/2 cups of hot water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Serve the brown rice sprouts pulao hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 158 cal
+Protein 6.1 g
+Carbohydrates 28.7 g
+Fiber 1.7 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 6.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouts-pulao-3583r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35021</t>
+  </si>
+  <si>
+    <t>Khumbh Ke Kebab ( Healthy Starter Recipe )</t>
+  </si>
+  <si>
+    <t>Quick Snacks / Quick Starters</t>
+  </si>
+  <si>
+    <t>For The Garlic Chutney (makes 3/4 Cup)
+1 cup roughly chopped garlic (lehsun)
+1 tbsp chilli powder
+1 tsp tamarind (imli) pulp
+1/2 tsp lemon juice
+salt to taste
+Other Ingredients
+2 1/2 tsp oil
+1 cup finely chopped onions
+1/2 cup chopped mushrooms (khumbh)
+3/4 cup quick cooking rolled oats
+3/4 cup low-fat milk (99.7% fat-free , readily available in the market)
+1 tsp freshly ground black pepper powder
+salt to taste
+4 tbsp chopped coriander (dhania)
+1 tbsp chopped green chillies</t>
+  </si>
+  <si>
+    <t>Method
+For the garlic chutney
+Combine all the ingredients in a mixer with ¼ cup of water and blend to a smooth paste.
+Refrigerate till use.
+How to proceed
+Heat 1 tsp oil in a broad non- stick pan, add the onions and sauté on a medium flame till they turn translucent.
+Add the mushrooms and oats and sauté on a medium flame for another 2 to 3 minutes.
+Add the milk, mix well and cook on a slow flame, while stirring continuously, till the mixture becomes thick and leaves the sides of the pan. Add the salt and pepper and mix well.
+Remove from the flame, add the coriander and green chillies and mix well.
+Cool slightly and divide the mixture into 12 equal portions.
+Roll out each portion into a 67 mm. (2½”) flat oval kebab.
+Heat a non- stick tava (griddle) and cook each kebab, using 1/8 tsp of oil, till they turn light brown in colour from both the sides.
+Serve hot with garlic chutney.</t>
+  </si>
+  <si>
+    <t>Energy 39 cal
+Protein 1.5 g
+Carbohydrates 5.3 g
+Fiber 0.7 g
+Fat 1.4 g
+Cholesterol 0 mg
+Sodium 7.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/khumbh-ke-kebab--healthy-starter-recipe--35021r</t>
+  </si>
+  <si>
+    <t>No of Recipes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -799,19 +1997,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:QE11"/>
+  <dimension ref="A1:QE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="BY1" sqref="BY1:HP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.42578125"/>
-    <col min="2" max="2" customWidth="true" width="9.140625"/>
-    <col min="377" max="377" customWidth="true" width="20.28515625"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="377" max="377" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:447" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>6</v>
+      </c>
+      <c r="O1">
+        <v>7</v>
+      </c>
+      <c r="Q1">
+        <v>8</v>
+      </c>
+      <c r="S1">
+        <v>9</v>
+      </c>
+      <c r="U1">
+        <v>10</v>
+      </c>
+      <c r="W1">
+        <v>11</v>
+      </c>
+      <c r="Y1">
+        <v>12</v>
+      </c>
+      <c r="AA1">
+        <v>13</v>
+      </c>
+      <c r="AC1">
+        <v>14</v>
+      </c>
+      <c r="AE1">
+        <v>15</v>
+      </c>
+      <c r="AG1">
+        <v>16</v>
+      </c>
+      <c r="AI1">
+        <v>17</v>
+      </c>
+      <c r="AK1">
+        <v>18</v>
+      </c>
+      <c r="AM1">
+        <v>19</v>
+      </c>
+      <c r="AO1">
+        <v>20</v>
+      </c>
+      <c r="AQ1">
+        <v>21</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AU1">
+        <v>23</v>
+      </c>
+      <c r="AW1">
+        <v>24</v>
+      </c>
+      <c r="AY1">
+        <v>25</v>
+      </c>
+      <c r="BA1">
+        <v>26</v>
+      </c>
+      <c r="BC1">
+        <v>27</v>
+      </c>
+      <c r="BE1">
+        <v>28</v>
+      </c>
+      <c r="BG1">
+        <v>29</v>
+      </c>
+      <c r="BI1">
+        <v>30</v>
+      </c>
+      <c r="BK1">
+        <v>31</v>
+      </c>
+      <c r="BM1">
+        <v>32</v>
+      </c>
+      <c r="BO1">
+        <v>33</v>
+      </c>
+      <c r="BQ1">
+        <v>34</v>
+      </c>
+      <c r="BS1">
+        <v>35</v>
+      </c>
+      <c r="BU1">
+        <v>36</v>
+      </c>
+      <c r="BW1">
+        <v>37</v>
+      </c>
+    </row>
     <row r="2" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -842,6 +2156,90 @@
       </c>
       <c r="S2" t="s">
         <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:447" x14ac:dyDescent="0.25">
@@ -875,6 +2273,90 @@
       <c r="S3" t="s">
         <v>76</v>
       </c>
+      <c r="U3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>229</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>243</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>256</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="4" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -907,6 +2389,90 @@
       <c r="S4" t="s">
         <v>77</v>
       </c>
+      <c r="U4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>223</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>237</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>244</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>257</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="5" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -939,6 +2505,90 @@
       <c r="S5" t="s">
         <v>78</v>
       </c>
+      <c r="U5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>245</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>258</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="6" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -971,6 +2621,90 @@
       <c r="S6" t="s">
         <v>14</v>
       </c>
+      <c r="U6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1003,6 +2737,90 @@
       <c r="S7" t="s">
         <v>55</v>
       </c>
+      <c r="U7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>218</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>259</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1035,6 +2853,90 @@
       <c r="S8" t="s">
         <v>79</v>
       </c>
+      <c r="U8" t="s">
+        <v>86</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>191</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>219</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>225</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>239</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>246</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>252</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="9" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1067,6 +2969,90 @@
       <c r="S9" t="s">
         <v>80</v>
       </c>
+      <c r="U9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>213</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>226</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>233</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>240</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>247</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>253</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>261</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="10" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1099,34 +3085,90 @@
       <c r="S10" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BM10" s="1"/>
-      <c r="BO10" s="1"/>
-      <c r="BQ10" s="1"/>
-      <c r="BS10" s="1"/>
-      <c r="BU10" s="1"/>
-      <c r="BW10" s="1"/>
+      <c r="U10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>18</v>
+      </c>
       <c r="BY10" s="1"/>
       <c r="CA10" s="1"/>
       <c r="CC10" s="1"/>
@@ -1345,6 +3387,90 @@
       <c r="S11" t="s">
         <v>81</v>
       </c>
+      <c r="U11" t="s">
+        <v>88</v>
+      </c>
+      <c r="W11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>207</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>227</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>234</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>241</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>248</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>254</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForHypothyroidism.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForHypothyroidism.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7072FA4A-2598-4A69-8246-67A4E1AD6A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59A7371-B9D1-4A76-910A-506654B2BFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="332">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -484,247 +484,48 @@
     <t>https://www.tarladalal.com/mushroom-and-green-capsicum-subzi-39688r</t>
   </si>
   <si>
-    <t xml:space="preserve"> 22235</t>
-  </si>
-  <si>
-    <t>Cream Of Mushroom Soup</t>
-  </si>
-  <si>
-    <t>Low Calorie Soups</t>
-  </si>
-  <si>
-    <t>For Cream Of Mushroom Soup
-2 tbsp butter
-2 tbsp chopped garlic (lehsun)
-1 cup sliced onions
-2 cups sliced mushrooms (khumbh)
-1/2 tsp dried mixed herbs
-1 cup vegetable stock
-2 tbsp fresh cream
-salt and to taste</t>
-  </si>
-  <si>
-    <t>Method
-For cream of mushroom soup
-To make cream of mushroom soup, heat butter in a broad pan, add garlic and onions and saute on medium flame for 2 minutes.
-Add mushrooms and saute on medium flame for 4 minutes, while stirring occasionally.
-Add mixed herbs, salt, pepper and vegetable stock and simmer for 4 to 5 minutes.
-Remove in a big plate and allow it to cool.
-Transfer the mixture into a mixer jar and blend to a smooth paste.
-Now transfer the paste into deep pan, add 1 cup water, fresh cream.
-Mix well and cook on medium flame for 3 minutes.
-Serve the cream of mushroom soup hot with toasted bread.</t>
-  </si>
-  <si>
-    <t>Energy 73 cal
-Protein 1.2 g
-Carbohydrates 4.3 g
-Fiber 0.9 g
-Fat 5.9 g
-Cholesterol 12 mg
-Sodium 48.2 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/cream-of-mushroom-soup-22235r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39896</t>
-  </si>
-  <si>
-    <t>Oats and Mixed Nuts Ladoo ( Healthy Laddu)</t>
-  </si>
-  <si>
-    <t>Diabetic recipes</t>
-  </si>
-  <si>
-    <t>For Oats and Mixed Nuts Ladoo
-1 cup quick cooking rolled oats
-1 tbsp finely chopped walnuts (akhrot)
-1 tbsp finely chopped almonds (badam)
-2 tbsp sesame seeds (til)
-2 tsp ghee
-2 tbsp chopped jaggery (gur)
-1/2 tsp cardamom (elaichi) powder
-2 tbsp low fat milk , 99.7% fat-free</t>
-  </si>
-  <si>
-    <t>6 mins</t>
-  </si>
-  <si>
-    <t>Method
-For oats and mixed nuts ladoo
-To make oats and mixed nuts ladoo, heat a broad non-stick pan, add the oats and dry roast on a medium flame for 3 minutes. Remove and keep aside to cool completely.
-Heat the same broad non-stick pan, add the sesame seeds and dry roast them on a medium flame for 2 minutes. Keep aside to cool completely.
-Heat the ghee and jaggery in the same broad non-stick pan, mix well and cook on a slow flame for 1 minute, while stirring continuously.
-Transfer the jaggery mixture into a flat thali and allow it to cool slightly.
-Add the roasted oats, roasted sesame seeds, walnuts, almonds and cardamom powder and mix very well.
-Add the milk and mix very well.
-Divide the mixture into 8 equal portions and roll out each portion into a round ball.
-Serve the oats and mixed nuts ladoo immediately.</t>
-  </si>
-  <si>
-    <t>Energy 105 cal
-Protein 2.9 g
-Carbohydrates 11.8 g
-Fiber 1.7 g
-Fat 5.3 g
+    <t xml:space="preserve"> 36139</t>
+  </si>
+  <si>
+    <t>Walnut and Cherry Tomato Salad, Quick Cherry Tomato Salad</t>
+  </si>
+  <si>
+    <t>Vitamin E Rich</t>
+  </si>
+  <si>
+    <t>For Walnut and Cherry Tomato Salad
+2 cups cherry tomatoes , cut into halves
+1/4 cup roughly chopped walnuts (akhrot)
+1/4 cup chopped capsicum
+1/2 cup basil leaves , torn into pieces
+2 tsp roasted sesame seeds (til)
+To Be Mixed Together Into A Dressing
+2 tsp olive oil
+2 tsp honey
+1 tsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Method
+For walnut and cherry tomato salad
+To make walnut and cherry tomato salad, combine the cherry tomatoes, walnuts, capsicum, basil leaves and sesame seeds in a bowl.
+Add the dressing and toss well.
+Serve the walnut and cherry tomato salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 113 cal
+Protein 2.3 g
+Carbohydrates 7.5 g
+Fiber 2 g
+Fat 8.3 g
 Cholesterol 0 mg
-Sodium 2.2 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/oats-and-mixed-nuts-ladoo--healthy-laddu-39896r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5295</t>
-  </si>
-  <si>
-    <t>Green Peas and Mint Pulao</t>
-  </si>
-  <si>
-    <t>Quick Vegetarian Rice, khichdi Recipes</t>
-  </si>
-  <si>
-    <t>1 1/2 cups boiled green peas
-1/4 cup finely chopped mint leaves (phudina) leaves
-3 cups cooked brown rice
-2 tsp oil
-1 1/2 tsp finely chopped garlic (lehsun)
-1/2 cup finely chopped onions
-2 tsp finely chopped green chillies
-1/2 cup chopped coriander (dhania)
-salt to taste
-For Serving
-low-fat curds</t>
-  </si>
-  <si>
-    <t>4 mins</t>
-  </si>
-  <si>
-    <t>Method
-Heat the oil in a broad non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
-Add the green chillies, green peas, coriander, mint leaves and 2 tbsp of water, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
-Add the salt and brown rice, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
-Serve immediately with low-fat curds.
-Handy tip:
-To make 3 cups of cooked brown rice, boil enough water in a deep pan, add the salt, 1 tsp of oil and 1 cup of soaked and drained brown rice and cook till the rice is 85% cooked. Drain completely and use as required.</t>
-  </si>
-  <si>
-    <t>No nutritional value is found</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/green-peas-and-mint-pulao-5295r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42032</t>
-  </si>
-  <si>
-    <t>Rajma Brown Rice, Low Salt Recipe</t>
-  </si>
-  <si>
-    <t>Healthy Heart Rice, Khichdi and Biryani</t>
-  </si>
-  <si>
-    <t>For Rajma Brown Rice
-1/2 cup rajma (kidney beans)
-3 cups soaked and cooked brown rice
-1 1/2 tsp oil
-1/2 tsp cumin seeds (jeera)
-1/4 tsp asafoetida (hing)
-1/2 cup sliced onions
-1/2 tsp ginger-garlic (adrak-lehsun) paste
-1/2 cup chopped tomatoes
-1/4 tsp turmeric powder (haldi)
-1/2 tsp chilli powder
-1/2 tsp coriander-cumin seeds (dhania-jeera) powder
-1/8 tsp salt</t>
-  </si>
-  <si>
-    <t>28 mins</t>
-  </si>
-  <si>
-    <t>Method
-For rajma brown rice
-To make rajma brown rice, soak the rajma in enough water in a deep bowl for 8 hours. Drain well and keep aside.
-Heat the oil in a pressure cooker and add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
-Add the onions and ginger-garlic paste and sauté on a medium flame for 2 to 3 minutes.
-Add the tomatoes, turmeric powder, chilli powder, coriander-cumin seeds powder and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
-Add the rajma and 1 cup of water, mix well and pressure cook for 4 whistles.
-Allow the steam to escape before opening the lid.
-Add the cooked brown rice, mix gently and cook on a medium flame for 2 minutes, while stirring occasionally.
-Serve the rajma brown rice hot.</t>
-  </si>
-  <si>
-    <t>Energy 165 cal
-Protein 5.2 g
-Carbohydrates 30.7 g
-Fiber 1.8 g
-Fat 2.3 g
-Cholesterol 0 mg
-Sodium 67.9 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/rajma-brown-rice-low-salt-recipe-42032r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 763</t>
-  </si>
-  <si>
-    <t>Anti- Aging Breakfast Platter</t>
-  </si>
-  <si>
-    <t>Antioxidant Rich Indian</t>
-  </si>
-  <si>
-    <t>For Anti- Aging Breakfast Platter
-2 tbsp sprouted moong (whole green gram)
-1/4 cup low fat paneer (cottage cheese) cubes
-1/4 tsp chilli powder
-1/4 tsp cumin seeds (jeera) powder
-1/4 tsp rock salt (sendha namak)
-6 oranges segments
-1/2 cup watermelon (tarbuj) balls
-1/4 cup green grapes
-2 dates (khajur)
-4 walnuts (akhrot)
-5 almonds (badam)</t>
-  </si>
-  <si>
-    <t>0 mins</t>
-  </si>
-  <si>
-    <t>Method
-For anti- aging breakfast platter
-To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
-Arrange all the ingredients on a platter and serve immediately.</t>
-  </si>
-  <si>
-    <t>Energy 324 cal
-Protein 15 g
-Carbohydrates 46.1 g
-Fiber 5.8 g
-Fat 9 g
-Cholesterol 0.1 mg
-Sodium 153.5 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22529</t>
-  </si>
-  <si>
-    <t>How To Cook Brown Rice</t>
-  </si>
-  <si>
-    <t>Method
-How to cook brown rice
-To cook brown rice, soak the brown rice in enough water in a bowl for 2 hours. Drain well.
-Boil enough water in a deep non-stick pan, add the salt and soaked and drained brown rice, mix well and cook on a medium flame for approx. 25 minutes, while stirring occasionally.
-Drain the brown rice well, transfer to a plate and separate each grain using a fork lightly.
-Use the coooked brown rice as required.</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/how-to-cook-brown-rice-22529r</t>
+Sodium 10.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/walnut-and-cherry-tomato-salad-quick-cherry-tomato-salad-36139r</t>
   </si>
   <si>
     <t xml:space="preserve"> 35073</t>
@@ -778,6 +579,655 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/tomato-methi-rice-healthy-tomato-methi-pulao-35073r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42104</t>
+  </si>
+  <si>
+    <t>Brown Rice Khichdi, Healthy Lentil Brown Rice Khichadi</t>
+  </si>
+  <si>
+    <t>Hyperthyroidism Diet</t>
+  </si>
+  <si>
+    <t>For Brown Rice Khichdi
+1/2 cup unpolished brown rice
+1 cup green moong dal (split green gram)
+2 tsp ghee
+1 tsp cumin seeds (jeera)
+1/2 tsp asafoetida (hing)
+1/2 tsp turmeric powder (haldi)
+2 cloves (laung / lavang)
+3 black peppercorns (kalimirch)
+salt to taste</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>Method
+For brown rice khichdi
+To make brown rice khichdi, combine the brown rice and green moong dal in a deep bowl with enough water and soak it for 30 minutes. Drain and keep aside.
+Heat the ghee in a pressure cooker, add the cumin seeds, asafoetida, turmeric powder, cloves and peppercorns and sauté on a medium flame for a few seconds.
+Add the rice-moong dal, salt and 3 cups of water, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Add more ¾ cup of water, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the brown rice khichdi hot.</t>
+  </si>
+  <si>
+    <t>Energy 290 cal
+Protein 14.9 g
+Carbohydrates 49.1 g
+Fiber 5.2 g
+Fat 3.7 g
+Cholesterol 0 mg
+Sodium 15.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/brown-rice-khichdi-healthy-lentil-brown-rice-khichadi-42104r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40497</t>
+  </si>
+  <si>
+    <t>Quinoa, Corn and Capsicum Salad</t>
+  </si>
+  <si>
+    <t>Healthy Lunch Veg Salads</t>
+  </si>
+  <si>
+    <t>For Quinoa , Corn and Capsicum Salad
+1 cup quinoa , washed and drained
+1/2 cup boiled sweet corn kernels (makai ke dane)
+1/2 cup finely chopped coloured capsicum (red, yellow, green)
+To Be Mixed Into A Dressing
+2 1/2 tbsp olive oil
+1 tbsp lemon juice
+1 tbsp honey
+1 1/2 tsp dried oregano
+1 tsp dry red chilli flakes (paprika)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For quinoa, corn and capsicum salad
+To make quinoa corn and capsicum salad, boil 2 cups of water in a deep non-stick pan, add the quinoa, mix well and cook on a medium flame for 10 to 12 minutes, while stirring occasionally. Keep aside to cool completely.
+Transfer the cooked quinoa into a deep bowl, add all the remaining ingredients along with the dressing and toss well.
+Serve the quinoa corn and capsicum salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 395 cal
+Protein 9.9 g
+Carbohydrates 57.8 g
+Fiber 14.4 g
+Fat 16.8 g
+Cholesterol 0 mg
+Sodium 5.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quinoa-corn-and-capsicum-salad-40497r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42411</t>
+  </si>
+  <si>
+    <t>Quinoa, Rocket Leaves and Chickpea Veg Salad, Buddha Bowl</t>
+  </si>
+  <si>
+    <t>Vitamin A Rich Glowing Skin</t>
+  </si>
+  <si>
+    <t>1 cup cooked quinoa
+1 1/4 cups rocket leaves (arugula)
+1 cup soaked and cooked kabuli chana (white chick peas)
+1 1/4 cups coloured capsicum cubes
+3/4 cup diagonally cut carrot
+To Be Mixed Into A Dressing
+2 tbsp olive oil
+1 tbsp lemon juice
+2 1/2 tsp honey
+3/4 tsp sea salt (khada namak)
+freshly ground black pepper (kalimirch) to taste
+For The Topping
+2 tbsp roasted pumpkin seeds</t>
+  </si>
+  <si>
+    <t>Method
+Combine the quinoa, rocket leaves, kabuli chana, capsicum and carrot in a deep bowl.
+Just before serving, pour the dressing over it, toss it well and finally top it with pumpkin seeds and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 511 cal
+Protein 15.3 g
+Carbohydrates 70 g
+Fiber 23.1 g
+Fat 21.1 g
+Cholesterol 0 mg
+Sodium 44.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quinoa-rocket-leaves-and-chickpea-veg-salad-buddha-bowl-42411r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2988</t>
+  </si>
+  <si>
+    <t>Mixed Sprouts Brown Rice, Healthy Sprouts Pulao</t>
+  </si>
+  <si>
+    <t>Vitamin B1 Thiamine</t>
+  </si>
+  <si>
+    <t>For Mixed Sprouts Brown Rice
+1 cup boiled mixed sprouts
+1 1/4 cups cooked brown rice
+2 tsp oil
+2 cloves (laung / lavang)
+1/4 tsp asafoetida (hing)
+1/2 tsp finely chopped green chillies
+1 tsp grated ginger (adrak)
+1/2 cup chopped capsicum
+1/2 cup chopped spring onions
+1/2 cup chopped tomatoes
+1/4 cup finely chopped coriander (dhania)
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1 tsp coriander (dhania) powder
+salt to taste
+For The Garnish
+1/4 cup finely chopped spring onion greens</t>
+  </si>
+  <si>
+    <t>9 mins</t>
+  </si>
+  <si>
+    <t>Method
+For mixed sprouts brown rice
+To make mixed sprouts brown rice, heat the oil in a broad non-stick pan, add the cloves and asafoetida and sauté on a medium flame for a few seconds.
+Add the green chillies, ginger, capsicum and spring onions and sauté on a medium flame for 2 to 3 minutes.
+Add the tomatoes, coriander, turmeric powder, chilli powder and coriander powder, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the mixed sprouts, brown rice and salt, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the mixed sprouts brown rice hot garnished with spring onion greens.</t>
+  </si>
+  <si>
+    <t>Energy 185 cal
+Protein 6 g
+Carbohydrates 30 g
+Fiber 4.7 g
+Fat 4.5 g
+Cholesterol 0 mg
+Sodium 9.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mixed-sprouts-brown-rice-healthy-sprouts-pulao-2988r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42344</t>
+  </si>
+  <si>
+    <t>Beetroot, Peppers, Carrot Healthy Salad for Work</t>
+  </si>
+  <si>
+    <t>Low Calorie, Weight Loss</t>
+  </si>
+  <si>
+    <t>For Beetroot , Capsicum and Carrot Salad
+1/2 cup beetroot cubes
+1/2 cup red capscium cubes
+1/2 cup diagonally cut carrot
+1/2 cup red pumpkin (bhopla / kaddu)
+sea salt (khada namak) to taste
+1/2 cup zucchini cubes
+1/4 cup paneer (cottage cheese) cubes
+1/2 cup mushroom (khumbh) cubes
+1 cup rocket leaves (arugula) leaves
+2 tbsp alfalfa sprouts
+To Be Mixed Into A Dressing
+1 tbsp olive oil
+1 tsp lemon juice
+1/2 tsp honey
+1 tsp balsamic vinegar
+sea salt (khada namak) and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For beetroot, capsicum and carrot salad
+To make beetroot, capsicum and carrot salad, heat a griller pan or a broad non-stick pan, add the beetroot, carrot, red pumpkin little and little sea salt and sauté on a medium flame for 3 minutes. Keep aside.
+In the same pan, add the zucchini and sea salt and sauté on a on a medium flame for 1 minute. Keep aside.
+In the same pan, add the paneer cubes and toss on a high flame for 1 minute.
+Cool the ingredients completely, add all the other ingredients and toss well.
+Just before serving, add the dressing and toss well.
+Serve beetroot, peppers, carrot healthy salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 188 cal
+Protein 5.8 g
+Carbohydrates 15.2 g
+Fiber 4.4 g
+Fat 12.3 g
+Cholesterol 0 mg
+Sodium 39.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/beetroot-peppers-carrot-healthy-salad-for-work-42344r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42207</t>
+  </si>
+  <si>
+    <t>Antioxidant, Protein Rich Healthy Lunch Salad</t>
+  </si>
+  <si>
+    <t>Healthy Indian Lunch Recipes</t>
+  </si>
+  <si>
+    <t>For Antioxidant , Protein Rich Healthy Lunch Salad
+1/2 cup iceberg lettuce , torn into pieces
+1/4 cup alfalfa sprouts , placed in cold for 5 minutes and drained
+1/2 cup soaked and boiled masoor (whole red lentil)
+1/4 cup coloured capsicum cubes
+2 tbsp sliced spring onions whites
+2 tbsp chopped spring onion greens
+1/4 cup mushroom (khumbh) cubes
+1/4 cup red pumpkin (bhopla / kaddu)
+1/4 cup feta cheese cubes
+To Be Mixed Into A Dressing
+2 tsp extra virgin olive oil
+1 tsp lemon juice
+1/2 tsp honey
+1/4 tsp sea salt (khada namak)</t>
+  </si>
+  <si>
+    <t>Method
+Make the extra virgin olive oil dressing and mix well.
+Heat a griller or non stick pan with 1/2 tsp oil and grill the pumpkin for 2 to 3 minutes on medium heat.
+In a big bowl put iceberg lettuce, alfalfa sprouts, cooked whole masoor, coloured capsicum, spring onions, mushrooms, grilled pumpkin (kaddu) and feta cheese.
+It can be taken to work in a lunch box with a dressing in a separate small container.
+Just before serving add the prepared extra virgin oil dressing.
+Serve antioxidant, protein rich healthy lunch salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 353 cal
+Protein 16.4 g
+Carbohydrates 32.4 g
+Fiber 5.8 g
+Fat 18.4 g
+Cholesterol 32.1 mg
+Sodium 433 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/antioxidant-protein-rich-healthy-lunch-salad-42207r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 279</t>
+  </si>
+  <si>
+    <t>Mushroom Curry, Indian Mushroom Masala Curry</t>
+  </si>
+  <si>
+    <t>High Fiber</t>
+  </si>
+  <si>
+    <t>For Mushroom Curry
+2 cups blanched and thinly sliced mushrooms (khumbh)
+2 tbsp oil
+2 cardamoms (elaichi)
+2 bayleaves (tejpatta)
+3 cloves (laung / lavang)
+1/2 tsp garam masala
+1/2 tsp chilli powder
+1 tsp finely chopped ginger (adrak)
+1 tsp finely chopped green chillies
+3/4 cup beaten fresh curd (dahi)
+1/4 cup finely chopped coriander (dhania)
+salt to taste
+For The Paste
+1 cup roughly chopped onions
+6 garlic (lehsun) cloves
+12 mm piece ginger (adrak)
+2 tbsp broken cashew nut (kaju)</t>
+  </si>
+  <si>
+    <t>Method
+For the paste
+Combine the onions and 1 cup of water in a deep vessel and cook on a medium flame till the onions turn soft. Keep aside to cool slightly.
+Add the garlic, ginger and cashewnuts and blend in a mixer to a smooth paste. Keep aside.
+How to proceed
+To make mushroom curry, heat the oil in a kadhai, add the cardamom, bayleaves and cloves and sauté on a medium flame for a few seconds.
+Add the paste and sauté on a medium flame for 2 to 3 minutes.
+Add the garam masala, chilli powder, ginger and green chillies, mix well and cook on a medium flame for 1 minute.
+Lower the flame, add the curds and mix well. Cook on a slow flame for 1 minute, while stirring continuously.
+Add the mushrooms, coriander, 1/2 cup water, salt, mix well and cook on a medium flame for another 1 to 2 minutes.
+Serve the mushroom curry hot.</t>
+  </si>
+  <si>
+    <t>Energy 160 cal
+Protein 3.6 g
+Carbohydrates 8 g
+Fiber 0.7 g
+Fat 12 g
+Cholesterol 6 mg
+Sodium 11.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mushroom-curry-indian-mushroom-masala-curry-279r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3460</t>
+  </si>
+  <si>
+    <t>Bean Sprouts Vegetable Salad</t>
+  </si>
+  <si>
+    <t>Iron Rich Indian Salads</t>
+  </si>
+  <si>
+    <t>For Bean Sprouts Vegetable Salad
+3/4 cup bean sprouts
+1/2 cup cucumber cubes
+1 tsp olive oil
+2 tsp finely chopped garlic (lehsun)
+1 tbsp finely chopped fresh basil
+1/2 cup sliced mushrooms (khumbh)
+1/2 cup chopped spring onions
+1/2 cup red capscium cubes
+1/2 cup green capsicum cubes
+2 tsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For bean sprouts vegetable salad
+To make bean sprouts vegetable salad, heat the olive oil in a broad non-stick pan, add the garlic and sauté on a medium flame for 30 seconds.
+Add the basil leaves and sauté on a medium flame for 30 seconds.
+Add the mushrooms, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Switch off the flame, transfer the mushroom mixture into a deep bowl, add the bean sprouts, cucumber, spring onions, red capsicum, green capsicum, lemon juice and salt and toss well.
+Serve the bean sprouts vegetable salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 33 cal
+Protein 1.3 g
+Carbohydrates 4.2 g
+Fiber 1.8 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 4.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bean-sprouts-vegetable-salad-3460r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3274</t>
+  </si>
+  <si>
+    <t>Pasta Salad with Basil Vinaigrette</t>
+  </si>
+  <si>
+    <t>Italian Party</t>
+  </si>
+  <si>
+    <t>For Pasta Salad With Basil Vinaigrette
+1 1/4 cups cooked fusillii
+1/4 cup blanched , peeled and chopped tomatoes
+1/4 cup finely chopped walnuts (akhrot)
+2 tbsp finely chopped black olives
+1 processed cheese cube , cut into 6 pieces
+To Be Mixed Together Into A Basil Vinaigrette
+1 1/2 tbsp olive oil
+2 tbsp chopped fresh basil
+1 tsp finely chopped garlic (lehsun)
+1/2 tbsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For pasta salad with basil vinaigrette
+Combine the fusilli, tomatoes, walnuts, olives, prepared basil vinaigrette and salt and toss well.
+Add the cheese cubes and mix lightly.
+Refrigerate the pasta salad with basil vinaigrette for 1 hour and serve chilled.</t>
+  </si>
+  <si>
+    <t>No nutritional value is found</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pasta-salad-with-basil-vinaigrette-3274r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22235</t>
+  </si>
+  <si>
+    <t>Cream Of Mushroom Soup</t>
+  </si>
+  <si>
+    <t>Low Calorie Soups</t>
+  </si>
+  <si>
+    <t>For Cream Of Mushroom Soup
+2 tbsp butter
+2 tbsp chopped garlic (lehsun)
+1 cup sliced onions
+2 cups sliced mushrooms (khumbh)
+1/2 tsp dried mixed herbs
+1 cup vegetable stock
+2 tbsp fresh cream
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For cream of mushroom soup
+To make cream of mushroom soup, heat butter in a broad pan, add garlic and onions and saute on medium flame for 2 minutes.
+Add mushrooms and saute on medium flame for 4 minutes, while stirring occasionally.
+Add mixed herbs, salt, pepper and vegetable stock and simmer for 4 to 5 minutes.
+Remove in a big plate and allow it to cool.
+Transfer the mixture into a mixer jar and blend to a smooth paste.
+Now transfer the paste into deep pan, add 1 cup water, fresh cream.
+Mix well and cook on medium flame for 3 minutes.
+Serve the cream of mushroom soup hot with toasted bread.</t>
+  </si>
+  <si>
+    <t>Energy 73 cal
+Protein 1.2 g
+Carbohydrates 4.3 g
+Fiber 0.9 g
+Fat 5.9 g
+Cholesterol 12 mg
+Sodium 48.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cream-of-mushroom-soup-22235r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39896</t>
+  </si>
+  <si>
+    <t>Oats and Mixed Nuts Ladoo ( Healthy Laddu)</t>
+  </si>
+  <si>
+    <t>Diabetic recipes</t>
+  </si>
+  <si>
+    <t>For Oats and Mixed Nuts Ladoo
+1 cup quick cooking rolled oats
+1 tbsp finely chopped walnuts (akhrot)
+1 tbsp finely chopped almonds (badam)
+2 tbsp sesame seeds (til)
+2 tsp ghee
+2 tbsp chopped jaggery (gur)
+1/2 tsp cardamom (elaichi) powder
+2 tbsp low fat milk , 99.7% fat-free</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+For oats and mixed nuts ladoo
+To make oats and mixed nuts ladoo, heat a broad non-stick pan, add the oats and dry roast on a medium flame for 3 minutes. Remove and keep aside to cool completely.
+Heat the same broad non-stick pan, add the sesame seeds and dry roast them on a medium flame for 2 minutes. Keep aside to cool completely.
+Heat the ghee and jaggery in the same broad non-stick pan, mix well and cook on a slow flame for 1 minute, while stirring continuously.
+Transfer the jaggery mixture into a flat thali and allow it to cool slightly.
+Add the roasted oats, roasted sesame seeds, walnuts, almonds and cardamom powder and mix very well.
+Add the milk and mix very well.
+Divide the mixture into 8 equal portions and roll out each portion into a round ball.
+Serve the oats and mixed nuts ladoo immediately.</t>
+  </si>
+  <si>
+    <t>Energy 105 cal
+Protein 2.9 g
+Carbohydrates 11.8 g
+Fiber 1.7 g
+Fat 5.3 g
+Cholesterol 0 mg
+Sodium 2.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-and-mixed-nuts-ladoo--healthy-laddu-39896r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5295</t>
+  </si>
+  <si>
+    <t>Green Peas and Mint Pulao</t>
+  </si>
+  <si>
+    <t>Quick Vegetarian Rice, khichdi Recipes</t>
+  </si>
+  <si>
+    <t>1 1/2 cups boiled green peas
+1/4 cup finely chopped mint leaves (phudina) leaves
+3 cups cooked brown rice
+2 tsp oil
+1 1/2 tsp finely chopped garlic (lehsun)
+1/2 cup finely chopped onions
+2 tsp finely chopped green chillies
+1/2 cup chopped coriander (dhania)
+salt to taste
+For Serving
+low-fat curds</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a broad non-stick pan, add the garlic and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the green chillies, green peas, coriander, mint leaves and 2 tbsp of water, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the salt and brown rice, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve immediately with low-fat curds.
+Handy tip:
+To make 3 cups of cooked brown rice, boil enough water in a deep pan, add the salt, 1 tsp of oil and 1 cup of soaked and drained brown rice and cook till the rice is 85% cooked. Drain completely and use as required.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/green-peas-and-mint-pulao-5295r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42032</t>
+  </si>
+  <si>
+    <t>Rajma Brown Rice, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>Healthy Heart Rice, Khichdi and Biryani</t>
+  </si>
+  <si>
+    <t>For Rajma Brown Rice
+1/2 cup rajma (kidney beans)
+3 cups soaked and cooked brown rice
+1 1/2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/2 cup sliced onions
+1/2 tsp ginger-garlic (adrak-lehsun) paste
+1/2 cup chopped tomatoes
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>28 mins</t>
+  </si>
+  <si>
+    <t>Method
+For rajma brown rice
+To make rajma brown rice, soak the rajma in enough water in a deep bowl for 8 hours. Drain well and keep aside.
+Heat the oil in a pressure cooker and add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the onions and ginger-garlic paste and sauté on a medium flame for 2 to 3 minutes.
+Add the tomatoes, turmeric powder, chilli powder, coriander-cumin seeds powder and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the rajma and 1 cup of water, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Add the cooked brown rice, mix gently and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the rajma brown rice hot.</t>
+  </si>
+  <si>
+    <t>Energy 165 cal
+Protein 5.2 g
+Carbohydrates 30.7 g
+Fiber 1.8 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 67.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-brown-rice-low-salt-recipe-42032r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 763</t>
+  </si>
+  <si>
+    <t>Anti- Aging Breakfast Platter</t>
+  </si>
+  <si>
+    <t>Antioxidant Rich Indian</t>
+  </si>
+  <si>
+    <t>For Anti- Aging Breakfast Platter
+2 tbsp sprouted moong (whole green gram)
+1/4 cup low fat paneer (cottage cheese) cubes
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp rock salt (sendha namak)
+6 oranges segments
+1/2 cup watermelon (tarbuj) balls
+1/4 cup green grapes
+2 dates (khajur)
+4 walnuts (akhrot)
+5 almonds (badam)</t>
+  </si>
+  <si>
+    <t>Method
+For anti- aging breakfast platter
+To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
+Arrange all the ingredients on a platter and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 324 cal
+Protein 15 g
+Carbohydrates 46.1 g
+Fiber 5.8 g
+Fat 9 g
+Cholesterol 0.1 mg
+Sodium 153.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22529</t>
+  </si>
+  <si>
+    <t>How To Cook Brown Rice</t>
+  </si>
+  <si>
+    <t>Method
+How to cook brown rice
+To cook brown rice, soak the brown rice in enough water in a bowl for 2 hours. Drain well.
+Boil enough water in a deep non-stick pan, add the salt and soaked and drained brown rice, mix well and cook on a medium flame for approx. 25 minutes, while stirring occasionally.
+Drain the brown rice well, transfer to a plate and separate each grain using a fork lightly.
+Use the coooked brown rice as required.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-cook-brown-rice-22529r</t>
   </si>
   <si>
     <t xml:space="preserve"> 42401</t>
@@ -945,9 +1395,6 @@
     <t>Date and Walnut Balls</t>
   </si>
   <si>
-    <t>High Fiber</t>
-  </si>
-  <si>
     <t>For Date and Walnut Balls
 1/2 cup finely chopped black seedless dates
 2 tbsp finely chopped walnuts (akhrot)
@@ -1065,52 +1512,6 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/sprouts-and-methi-rice-38440r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42104</t>
-  </si>
-  <si>
-    <t>Brown Rice Khichdi, Healthy Lentil Brown Rice Khichadi</t>
-  </si>
-  <si>
-    <t>Hyperthyroidism Diet</t>
-  </si>
-  <si>
-    <t>For Brown Rice Khichdi
-1/2 cup unpolished brown rice
-1 cup green moong dal (split green gram)
-2 tsp ghee
-1 tsp cumin seeds (jeera)
-1/2 tsp asafoetida (hing)
-1/2 tsp turmeric powder (haldi)
-2 cloves (laung / lavang)
-3 black peppercorns (kalimirch)
-salt to taste</t>
-  </si>
-  <si>
-    <t>2 mins</t>
-  </si>
-  <si>
-    <t>Method
-For brown rice khichdi
-To make brown rice khichdi, combine the brown rice and green moong dal in a deep bowl with enough water and soak it for 30 minutes. Drain and keep aside.
-Heat the ghee in a pressure cooker, add the cumin seeds, asafoetida, turmeric powder, cloves and peppercorns and sauté on a medium flame for a few seconds.
-Add the rice-moong dal, salt and 3 cups of water, mix well and pressure cook for 4 whistles.
-Allow the steam to escape before opening the lid.
-Add more ¾ cup of water, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
-Serve the brown rice khichdi hot.</t>
-  </si>
-  <si>
-    <t>Energy 290 cal
-Protein 14.9 g
-Carbohydrates 49.1 g
-Fiber 5.2 g
-Fat 3.7 g
-Cholesterol 0 mg
-Sodium 15.6 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/brown-rice-khichdi-healthy-lentil-brown-rice-khichadi-42104r</t>
   </si>
   <si>
     <t xml:space="preserve"> 5303</t>
@@ -1574,9 +1975,6 @@
   </si>
   <si>
     <t>Sprouts Pulao</t>
-  </si>
-  <si>
-    <t>Vitamin B1 Thiamine</t>
   </si>
   <si>
     <t>For Sprouts Pulao
@@ -1997,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:QE11"/>
+  <dimension ref="A2:QE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BY1" sqref="BY1:HP1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,122 +2408,6 @@
     <col min="377" max="377" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:447" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="K1">
-        <v>5</v>
-      </c>
-      <c r="M1">
-        <v>6</v>
-      </c>
-      <c r="O1">
-        <v>7</v>
-      </c>
-      <c r="Q1">
-        <v>8</v>
-      </c>
-      <c r="S1">
-        <v>9</v>
-      </c>
-      <c r="U1">
-        <v>10</v>
-      </c>
-      <c r="W1">
-        <v>11</v>
-      </c>
-      <c r="Y1">
-        <v>12</v>
-      </c>
-      <c r="AA1">
-        <v>13</v>
-      </c>
-      <c r="AC1">
-        <v>14</v>
-      </c>
-      <c r="AE1">
-        <v>15</v>
-      </c>
-      <c r="AG1">
-        <v>16</v>
-      </c>
-      <c r="AI1">
-        <v>17</v>
-      </c>
-      <c r="AK1">
-        <v>18</v>
-      </c>
-      <c r="AM1">
-        <v>19</v>
-      </c>
-      <c r="AO1">
-        <v>20</v>
-      </c>
-      <c r="AQ1">
-        <v>21</v>
-      </c>
-      <c r="AS1">
-        <v>22</v>
-      </c>
-      <c r="AU1">
-        <v>23</v>
-      </c>
-      <c r="AW1">
-        <v>24</v>
-      </c>
-      <c r="AY1">
-        <v>25</v>
-      </c>
-      <c r="BA1">
-        <v>26</v>
-      </c>
-      <c r="BC1">
-        <v>27</v>
-      </c>
-      <c r="BE1">
-        <v>28</v>
-      </c>
-      <c r="BG1">
-        <v>29</v>
-      </c>
-      <c r="BI1">
-        <v>30</v>
-      </c>
-      <c r="BK1">
-        <v>31</v>
-      </c>
-      <c r="BM1">
-        <v>32</v>
-      </c>
-      <c r="BO1">
-        <v>33</v>
-      </c>
-      <c r="BQ1">
-        <v>34</v>
-      </c>
-      <c r="BS1">
-        <v>35</v>
-      </c>
-      <c r="BU1">
-        <v>36</v>
-      </c>
-      <c r="BW1">
-        <v>37</v>
-      </c>
-    </row>
     <row r="2" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -2158,88 +2440,124 @@
         <v>75</v>
       </c>
       <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
         <v>82</v>
       </c>
-      <c r="W2" t="s">
-        <v>89</v>
-      </c>
       <c r="Y2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA2" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>105</v>
       </c>
-      <c r="AC2" t="s">
-        <v>113</v>
-      </c>
       <c r="AE2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AG2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE2" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>201</v>
-      </c>
       <c r="BG2" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="BI2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="BK2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="BM2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="BO2" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS2" t="s">
         <v>235</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BU2" t="s">
         <v>242</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BW2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY2" t="s">
         <v>249</v>
       </c>
-      <c r="BU2" t="s">
-        <v>255</v>
-      </c>
-      <c r="BW2" t="s">
+      <c r="CA2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CC2" t="s">
         <v>263</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>270</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>283</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>290</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:447" x14ac:dyDescent="0.25">
@@ -2274,88 +2592,124 @@
         <v>76</v>
       </c>
       <c r="U3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
         <v>83</v>
       </c>
-      <c r="W3" t="s">
-        <v>90</v>
-      </c>
       <c r="Y3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" t="s">
         <v>98</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>106</v>
       </c>
-      <c r="AC3" t="s">
-        <v>114</v>
-      </c>
       <c r="AE3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="AG3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE3" t="s">
         <v>37</v>
       </c>
-      <c r="AI3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>202</v>
-      </c>
       <c r="BG3" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="BI3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="BK3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="BM3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="BO3" t="s">
+        <v>223</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BS3" t="s">
         <v>236</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BU3" t="s">
         <v>243</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BW3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BY3" t="s">
         <v>250</v>
       </c>
-      <c r="BU3" t="s">
-        <v>256</v>
-      </c>
-      <c r="BW3" t="s">
+      <c r="CA3" t="s">
+        <v>257</v>
+      </c>
+      <c r="CC3" t="s">
         <v>264</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>278</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>284</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>291</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>298</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>305</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>312</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>318</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:447" x14ac:dyDescent="0.25">
@@ -2390,88 +2744,124 @@
         <v>77</v>
       </c>
       <c r="U4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" t="s">
         <v>84</v>
       </c>
-      <c r="W4" t="s">
-        <v>91</v>
-      </c>
       <c r="Y4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" t="s">
         <v>99</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>107</v>
       </c>
-      <c r="AC4" t="s">
-        <v>115</v>
-      </c>
       <c r="AE4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AG4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE4" t="s">
         <v>38</v>
       </c>
-      <c r="AI4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ4" t="s">
+      <c r="BG4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>213</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO4" t="s">
         <v>22</v>
       </c>
-      <c r="AS4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>223</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>230</v>
-      </c>
-      <c r="BO4" t="s">
+      <c r="BQ4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BS4" t="s">
         <v>237</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BU4" t="s">
         <v>244</v>
       </c>
-      <c r="BS4" t="s">
-        <v>142</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>257</v>
-      </c>
       <c r="BW4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>251</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>258</v>
+      </c>
+      <c r="CC4" t="s">
         <v>265</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>272</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>143</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>285</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>299</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>306</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:447" x14ac:dyDescent="0.25">
@@ -2506,88 +2896,124 @@
         <v>78</v>
       </c>
       <c r="U5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" t="s">
         <v>85</v>
       </c>
-      <c r="W5" t="s">
-        <v>92</v>
-      </c>
       <c r="Y5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" t="s">
         <v>100</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>108</v>
       </c>
-      <c r="AC5" t="s">
-        <v>116</v>
-      </c>
       <c r="AE5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC5" t="s">
         <v>23</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="BE5" t="s">
         <v>39</v>
       </c>
-      <c r="AI5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>197</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>204</v>
-      </c>
       <c r="BG5" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="BI5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="BK5" t="s">
+        <v>214</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO5" t="s">
         <v>224</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BQ5" t="s">
         <v>231</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BS5" t="s">
         <v>238</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BU5" t="s">
         <v>245</v>
       </c>
-      <c r="BS5" t="s">
-        <v>251</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>258</v>
-      </c>
       <c r="BW5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>252</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>259</v>
+      </c>
+      <c r="CC5" t="s">
         <v>266</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>273</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>279</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>286</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>293</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>300</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>307</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>313</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>319</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:447" x14ac:dyDescent="0.25">
@@ -2622,58 +3048,58 @@
         <v>14</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="W6" t="s">
         <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="s">
         <v>55</v>
       </c>
       <c r="AE6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="s">
         <v>14</v>
       </c>
       <c r="AM6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO6" t="s">
         <v>14</v>
       </c>
-      <c r="AO6" t="s">
-        <v>25</v>
-      </c>
       <c r="AQ6" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="AS6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AU6" t="s">
         <v>55</v>
       </c>
       <c r="AW6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY6" t="s">
         <v>25</v>
       </c>
-      <c r="AY6" t="s">
-        <v>183</v>
-      </c>
       <c r="BA6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="BC6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="BE6" t="s">
         <v>25</v>
@@ -2682,27 +3108,63 @@
         <v>55</v>
       </c>
       <c r="BI6" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="BK6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>225</v>
+      </c>
+      <c r="BQ6" t="s">
         <v>47</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>14</v>
       </c>
       <c r="BS6" t="s">
         <v>55</v>
       </c>
       <c r="BU6" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>47</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>25</v>
+      </c>
+      <c r="CE6" t="s">
         <v>55</v>
       </c>
-      <c r="BW6" t="s">
+      <c r="CG6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>47</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>64</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CU6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2738,87 +3200,123 @@
         <v>55</v>
       </c>
       <c r="U7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC7" t="s">
         <v>14</v>
       </c>
-      <c r="W7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>117</v>
-      </c>
       <c r="AE7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC7" t="s">
         <v>64</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="BE7" t="s">
         <v>25</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>14</v>
       </c>
       <c r="BG7" t="s">
         <v>55</v>
       </c>
       <c r="BI7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="BK7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>280</v>
+      </c>
+      <c r="CI7" t="s">
         <v>15</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="CK7" t="s">
         <v>55</v>
       </c>
-      <c r="BO7" t="s">
-        <v>101</v>
-      </c>
-      <c r="BQ7" t="s">
+      <c r="CM7" t="s">
+        <v>181</v>
+      </c>
+      <c r="CO7" t="s">
         <v>14</v>
       </c>
-      <c r="BS7" t="s">
+      <c r="CQ7" t="s">
         <v>64</v>
       </c>
-      <c r="BU7" t="s">
-        <v>259</v>
-      </c>
-      <c r="BW7" t="s">
+      <c r="CS7" t="s">
+        <v>320</v>
+      </c>
+      <c r="CU7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2854,88 +3352,124 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
         <v>94</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>102</v>
       </c>
-      <c r="AA8" t="s">
-        <v>110</v>
-      </c>
       <c r="AC8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AE8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AG8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE8" t="s">
         <v>40</v>
       </c>
-      <c r="AI8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>191</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>205</v>
-      </c>
       <c r="BG8" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="BI8" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="BK8" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="BM8" t="s">
+        <v>220</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ8" t="s">
         <v>232</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BS8" t="s">
         <v>239</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BU8" t="s">
         <v>246</v>
       </c>
-      <c r="BS8" t="s">
-        <v>252</v>
-      </c>
-      <c r="BU8" t="s">
+      <c r="BW8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA8" t="s">
         <v>260</v>
       </c>
-      <c r="BW8" t="s">
+      <c r="CC8" t="s">
         <v>267</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>274</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>281</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>287</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>294</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>301</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>308</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>314</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>321</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:447" x14ac:dyDescent="0.25">
@@ -2970,88 +3504,124 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="W9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" t="s">
         <v>95</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>103</v>
       </c>
-      <c r="AA9" t="s">
-        <v>111</v>
-      </c>
       <c r="AC9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AE9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC9" t="s">
         <v>27</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="BE9" t="s">
         <v>41</v>
       </c>
-      <c r="AI9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="BG9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>209</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>233</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>240</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>247</v>
+      </c>
+      <c r="BW9" t="s">
         <v>103</v>
       </c>
-      <c r="AO9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>185</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>192</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>206</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>213</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>226</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>233</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>240</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>247</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>253</v>
-      </c>
-      <c r="BU9" t="s">
+      <c r="BY9" t="s">
+        <v>254</v>
+      </c>
+      <c r="CA9" t="s">
         <v>261</v>
       </c>
-      <c r="BW9" t="s">
+      <c r="CC9" t="s">
         <v>268</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>275</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>160</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>288</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>295</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>309</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>315</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>322</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:447" x14ac:dyDescent="0.25">
@@ -3169,18 +3739,42 @@
       <c r="BW10" t="s">
         <v>18</v>
       </c>
-      <c r="BY10" s="1"/>
-      <c r="CA10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CI10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CM10" s="1"/>
-      <c r="CO10" s="1"/>
-      <c r="CQ10" s="1"/>
-      <c r="CS10" s="1"/>
-      <c r="CU10" s="1"/>
+      <c r="BY10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>18</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>18</v>
+      </c>
       <c r="CW10" s="1"/>
       <c r="CY10" s="1"/>
       <c r="DA10" s="1"/>
@@ -3388,88 +3982,276 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y11" t="s">
         <v>96</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>104</v>
       </c>
-      <c r="AA11" t="s">
-        <v>112</v>
-      </c>
       <c r="AC11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AE11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE11" t="s">
         <v>42</v>
       </c>
-      <c r="AI11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>200</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>207</v>
-      </c>
       <c r="BG11" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="BI11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="BK11" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="BM11" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>228</v>
+      </c>
+      <c r="BQ11" t="s">
         <v>234</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BS11" t="s">
         <v>241</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BU11" t="s">
         <v>248</v>
       </c>
-      <c r="BS11" t="s">
-        <v>254</v>
-      </c>
-      <c r="BU11" t="s">
+      <c r="BW11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>255</v>
+      </c>
+      <c r="CA11" t="s">
         <v>262</v>
       </c>
-      <c r="BW11" t="s">
+      <c r="CC11" t="s">
         <v>269</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>282</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>289</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>296</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>303</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>310</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>316</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>323</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:447" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="U13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="AA13">
+        <v>13</v>
+      </c>
+      <c r="AC13">
+        <v>14</v>
+      </c>
+      <c r="AE13">
+        <v>15</v>
+      </c>
+      <c r="AG13">
+        <v>16</v>
+      </c>
+      <c r="AI13">
+        <v>17</v>
+      </c>
+      <c r="AK13">
+        <v>18</v>
+      </c>
+      <c r="AM13">
+        <v>19</v>
+      </c>
+      <c r="AO13">
+        <v>20</v>
+      </c>
+      <c r="AQ13">
+        <v>21</v>
+      </c>
+      <c r="AS13">
+        <v>22</v>
+      </c>
+      <c r="AU13">
+        <v>23</v>
+      </c>
+      <c r="AW13">
+        <v>24</v>
+      </c>
+      <c r="AY13">
+        <v>25</v>
+      </c>
+      <c r="BA13">
+        <v>26</v>
+      </c>
+      <c r="BC13">
+        <v>27</v>
+      </c>
+      <c r="BE13">
+        <v>28</v>
+      </c>
+      <c r="BG13">
+        <v>29</v>
+      </c>
+      <c r="BI13">
+        <v>30</v>
+      </c>
+      <c r="BK13">
+        <v>31</v>
+      </c>
+      <c r="BM13">
+        <v>32</v>
+      </c>
+      <c r="BO13">
+        <v>33</v>
+      </c>
+      <c r="BQ13">
+        <v>34</v>
+      </c>
+      <c r="BS13">
+        <v>35</v>
+      </c>
+      <c r="BU13">
+        <v>36</v>
+      </c>
+      <c r="BW13">
+        <v>37</v>
+      </c>
+      <c r="BY13">
+        <v>38</v>
+      </c>
+      <c r="CA13">
+        <v>39</v>
+      </c>
+      <c r="CC13">
+        <v>40</v>
+      </c>
+      <c r="CE13">
+        <v>41</v>
+      </c>
+      <c r="CG13">
+        <v>42</v>
+      </c>
+      <c r="CI13">
+        <v>43</v>
+      </c>
+      <c r="CK13">
+        <v>44</v>
+      </c>
+      <c r="CM13">
+        <v>45</v>
+      </c>
+      <c r="CO13">
+        <v>46</v>
+      </c>
+      <c r="CQ13">
+        <v>47</v>
+      </c>
+      <c r="CS13">
+        <v>48</v>
+      </c>
+      <c r="CU13">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
